--- a/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,49 +483,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>96.7</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>622</v>
+        <v>269</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>96.7</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>532</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
     </row>
     <row r="6">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1436</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7"/>
@@ -579,15 +579,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>61902</v>
+        <v>226852</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E14" s="4" t="n">
         <v/>
@@ -596,15 +596,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>10451</v>
+        <v>276085</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E15" s="4" t="n">
         <v/>
@@ -613,372 +613,340 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>47477</v>
+        <v>625139</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>392601</v>
+        <v>96526</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
-        </is>
+      <c r="E17" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>4931414</v>
+        <v>328411</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
-        </is>
+      <c r="E18" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>52237</v>
+        <v>143808</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-13</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>27295</v>
+        <v>287148</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2024-04-13</t>
-        </is>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>275061</v>
+        <v>69578</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2024-03-19</t>
-        </is>
+      <c r="E21" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>612373</v>
+        <v>4931894</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
-        </is>
+      <c r="E22" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>44160</v>
+        <v>56018</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>97122</v>
+        <v>34244</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2023-10-30</t>
-        </is>
+      <c r="E24" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>78331</v>
+        <v>27599</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>226852</v>
+        <v>191877</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-28</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>444399</v>
+        <v>262523</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
+      <c r="E27" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>25078</v>
+        <v>10451</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
-        </is>
+      <c r="E28" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>3573726</v>
+        <v>61902</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>149961</v>
+        <v>67111</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2022-06-20</t>
-        </is>
+      <c r="E30" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>86045</v>
+        <v>13016</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
-        </is>
+      <c r="E31" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>25808</v>
+        <v>684542</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>177476</v>
+        <v>53193</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>109036</v>
+        <v>27295</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>96304</v>
+        <v>442178</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -986,18 +954,18 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>74604</v>
+        <v>18721</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
@@ -1005,18 +973,18 @@
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2024-07-23</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>75637</v>
+        <v>66577</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -1024,37 +992,37 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2024-05-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>33050</v>
+        <v>59635</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>1538614</v>
+        <v>52237</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
@@ -1062,18 +1030,18 @@
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>159043</v>
+        <v>108823</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1081,18 +1049,18 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2023-12-19</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>235693</v>
+        <v>78331</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1100,18 +1068,18 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>321210</v>
+        <v>109036</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1119,18 +1087,18 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>95547</v>
+        <v>154405</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1138,18 +1106,18 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2022-08-29</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>119793</v>
+        <v>3650830</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
@@ -1157,37 +1125,37 @@
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>59673</v>
+        <v>99547</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>36791</v>
+        <v>77849</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1195,18 +1163,18 @@
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>677521</v>
+        <v>44160</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1214,18 +1182,18 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>262523</v>
+        <v>75637</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1233,18 +1201,18 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>67365</v>
+        <v>93224</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1252,18 +1220,18 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>107862</v>
+        <v>450036</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1271,18 +1239,18 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>56018</v>
+        <v>1543020</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
@@ -1290,18 +1258,18 @@
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>307252</v>
+        <v>169789</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
@@ -1309,37 +1277,37 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>139730</v>
+        <v>238746</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>194659</v>
+        <v>26241</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1347,56 +1315,56 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>34718</v>
+        <v>321983</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>546718</v>
+        <v>15730</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>434869</v>
+        <v>95547</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1404,18 +1372,18 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>108633</v>
+        <v>443012</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
@@ -1423,72 +1391,338 @@
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>191877</v>
+        <v>121232</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>52166</v>
+        <v>59673</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>108823</v>
+        <v>36791</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
+          <t>2020-07-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="n">
+        <v>25808</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>209593</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E63" s="4" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="n">
+        <v>178916</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="n">
+        <v>67365</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E65" s="4" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="n">
+        <v>97122</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" s="4" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="n">
+        <v>113652</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E67" s="4" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="n">
+        <v>308468</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E68" s="4" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>88435</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" s="4" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E69" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>139827</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E70" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="n">
+        <v>194659</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E71" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="n">
+        <v>34718</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E72" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="n">
+        <v>546751</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E73" s="4" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="n">
+        <v>46270</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="n">
+        <v>108633</v>
+      </c>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" s="4" t="inlineStr">
+        <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
@@ -493,7 +493,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>98</v>
+        <v>97.2</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>98.2</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>337</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7"/>
@@ -579,15 +579,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>226852</v>
+        <v>10451</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4" t="n">
         <v/>
@@ -596,15 +596,15 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>276085</v>
+        <v>61902</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E15" s="4" t="n">
         <v/>
@@ -613,283 +613,315 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>625139</v>
+        <v>54631</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>96526</v>
+        <v>445055</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E17" s="4" t="n">
-        <v/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>328411</v>
+        <v>4931894</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E18" s="4" t="n">
-        <v/>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>143808</v>
+        <v>52237</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>287148</v>
+        <v>18721</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E20" s="4" t="n">
-        <v/>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>69578</v>
+        <v>27295</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <v/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>4931894</v>
+        <v>276085</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E22" s="4" t="n">
-        <v/>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>56018</v>
+        <v>625139</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>34244</v>
+        <v>44160</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>27599</v>
+        <v>97122</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E25" s="4" t="n">
-        <v/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>191877</v>
+        <v>78331</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>262523</v>
+        <v>69578</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>10451</v>
+        <v>329845</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>61902</v>
+        <v>226852</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>67111</v>
+        <v>453273</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="E30" s="4" t="n">
-        <v/>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>13016</v>
+        <v>143808</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <v/>
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>684542</v>
+        <v>287148</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
@@ -897,18 +929,18 @@
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>53193</v>
+        <v>27599</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
@@ -916,37 +948,37 @@
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>27295</v>
+        <v>3650830</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>442178</v>
+        <v>96526</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -954,37 +986,37 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>18721</v>
+        <v>154405</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>66577</v>
+        <v>25808</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -992,75 +1024,75 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>59635</v>
+        <v>94657</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>52237</v>
+        <v>178916</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>108823</v>
+        <v>109036</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>78331</v>
+        <v>99547</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1068,18 +1100,18 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>109036</v>
+        <v>77849</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1087,18 +1119,18 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>154405</v>
+        <v>75637</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1106,75 +1138,75 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2022-08-29</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>3650830</v>
+        <v>34244</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>99547</v>
+        <v>1543020</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>77849</v>
+        <v>171222</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>44160</v>
+        <v>238746</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1182,18 +1214,18 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>75637</v>
+        <v>67111</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1201,37 +1233,37 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>93224</v>
+        <v>321983</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>450036</v>
+        <v>66577</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1239,37 +1271,37 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>1543020</v>
+        <v>15734</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>169789</v>
+        <v>95547</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
@@ -1277,18 +1309,18 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>238746</v>
+        <v>121232</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
@@ -1296,18 +1328,18 @@
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>26241</v>
+        <v>59673</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1315,18 +1347,18 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>321983</v>
+        <v>36791</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
@@ -1334,18 +1366,18 @@
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>15730</v>
+        <v>684542</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
@@ -1353,18 +1385,18 @@
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>95547</v>
+        <v>262523</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1372,56 +1404,56 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>443012</v>
+        <v>209593</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>121232</v>
+        <v>67365</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>59673</v>
+        <v>113652</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
@@ -1429,37 +1461,37 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>36791</v>
+        <v>56018</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>25808</v>
+        <v>26241</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
@@ -1467,37 +1499,37 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>209593</v>
+        <v>308468</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B64" s="6" t="n">
-        <v>178916</v>
+        <v>88435</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" s="4" t="n">
@@ -1505,18 +1537,18 @@
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B65" s="6" t="n">
-        <v>67365</v>
+        <v>139827</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" s="4" t="n">
@@ -1524,18 +1556,18 @@
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B66" s="6" t="n">
-        <v>97122</v>
+        <v>194659</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" s="4" t="n">
@@ -1543,18 +1575,18 @@
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B67" s="6" t="n">
-        <v>113652</v>
+        <v>34718</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" s="4" t="n">
@@ -1562,18 +1594,18 @@
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B68" s="6" t="n">
-        <v>308468</v>
+        <v>546751</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" s="4" t="n">
@@ -1581,37 +1613,37 @@
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
         </is>
       </c>
       <c r="B69" s="6" t="n">
-        <v>88435</v>
+        <v>13016</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-07-29</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>139827</v>
+        <v>443012</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
@@ -1619,18 +1651,18 @@
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B71" s="6" t="n">
-        <v>194659</v>
+        <v>46270</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" s="4" t="n">
@@ -1638,18 +1670,18 @@
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-04-23</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>34718</v>
+        <v>108633</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
@@ -1657,18 +1689,18 @@
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B73" s="6" t="n">
-        <v>546751</v>
+        <v>191877</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" s="4" t="n">
@@ -1676,37 +1708,37 @@
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>46270</v>
+        <v>61072</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>2019-04-23</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B75" s="6" t="n">
-        <v>108633</v>
+        <v>108823</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" s="4" t="n">
@@ -1714,7 +1746,7 @@
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2018-10-31</t>
         </is>
       </c>
     </row>

--- a/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
@@ -493,7 +493,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>97.2</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>97.7</v>
@@ -525,7 +525,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>98.2</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7"/>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>54631</v>
+        <v>56069</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>445055</v>
+        <v>449371</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>276085</v>
+        <v>276086</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -750,7 +750,7 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>625139</v>
+        <v>625298</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>329845</v>
+        <v>331283</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>453273</v>
+        <v>453652</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
@@ -1035,7 +1035,7 @@
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>94657</v>
+        <v>96091</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>99547</v>
+        <v>99549</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>77849</v>
+        <v>77999</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1187,7 +1187,7 @@
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>171222</v>
+        <v>175767</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>238746</v>
+        <v>240182</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>684542</v>
+        <v>684728</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
@@ -1415,7 +1415,7 @@
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>209593</v>
+        <v>210188</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="B63" s="6" t="n">
-        <v>308468</v>
+        <v>308481</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" s="4" t="n">
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="B70" s="6" t="n">
-        <v>443012</v>
+        <v>443223</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" s="4" t="n">
@@ -1681,7 +1681,7 @@
         </is>
       </c>
       <c r="B72" s="6" t="n">
-        <v>108633</v>
+        <v>109665</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" s="4" t="n">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B74" s="6" t="n">
-        <v>61072</v>
+        <v>62515</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" s="4" t="n">

--- a/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
@@ -493,7 +493,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>97.7</v>
@@ -525,7 +525,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>97.8</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7"/>

--- a/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,17 +483,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>96.59999999999999</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="4">
@@ -506,84 +506,85 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>352</v>
+        <v>523</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>97.7</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.170.0.3</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>97.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Totals:</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>415</v>
-      </c>
-    </row>
+      <c r="B5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6"/>
     <row r="7"/>
     <row r="8"/>
     <row r="9"/>
     <row r="10"/>
-    <row r="11"/>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+        </is>
+      </c>
+    </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Good Drivers (Roaming &gt; 99.8%)</t>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Adapter-Driver</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Total Samples</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Good Roaming Calculation (%)</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>Driver Vintage</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
-        </is>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="n">
+        <v>10451</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" s="4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B14" s="6" t="n">
-        <v>10451</v>
+        <v>63373</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="4" t="n">
@@ -596,11 +597,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B15" s="6" t="n">
-        <v>61902</v>
+        <v>11128</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="4" t="n">
@@ -617,7 +618,7 @@
         </is>
       </c>
       <c r="B16" s="6" t="n">
-        <v>56069</v>
+        <v>69345</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" s="4" t="n">
@@ -636,7 +637,7 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>449371</v>
+        <v>486214</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="4" t="n">
@@ -689,49 +690,49 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 23.70.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>18721</v>
+        <v>27295</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>27295</v>
+        <v>276524</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>276086</v>
+        <v>637128</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="4" t="n">
@@ -739,18 +740,18 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>625298</v>
+        <v>44160</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" s="4" t="n">
@@ -758,56 +759,56 @@
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>44160</v>
+        <v>97122</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>97122</v>
+        <v>78477</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B26" s="6" t="n">
-        <v>78331</v>
+        <v>226852</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" s="4" t="n">
@@ -815,56 +816,56 @@
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B27" s="6" t="n">
-        <v>69578</v>
+        <v>459268</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.230.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B28" s="6" t="n">
-        <v>331283</v>
+        <v>31330</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B29" s="6" t="n">
-        <v>226852</v>
+        <v>3654692</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="4" t="n">
@@ -872,18 +873,18 @@
       </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B30" s="6" t="n">
-        <v>453652</v>
+        <v>158283</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="4" t="n">
@@ -891,75 +892,75 @@
       </c>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.200.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B31" s="6" t="n">
-        <v>143808</v>
+        <v>25808</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>287148</v>
+        <v>106139</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>27599</v>
+        <v>178916</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>3650830</v>
+        <v>109293</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="4" t="n">
@@ -967,18 +968,18 @@
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B35" s="6" t="n">
-        <v>96526</v>
+        <v>101951</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" s="4" t="n">
@@ -986,37 +987,37 @@
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>154405</v>
+        <v>79953</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B37" s="6" t="n">
-        <v>25808</v>
+        <v>75637</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="4" t="n">
@@ -1024,18 +1025,18 @@
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>96091</v>
+        <v>35355</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" s="4" t="n">
@@ -1043,37 +1044,37 @@
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2021-04-27</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B39" s="6" t="n">
-        <v>178916</v>
+        <v>1543020</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>109036</v>
+        <v>191994</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" s="4" t="n">
@@ -1081,18 +1082,18 @@
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B41" s="6" t="n">
-        <v>99549</v>
+        <v>244856</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" s="4" t="n">
@@ -1100,18 +1101,18 @@
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B42" s="6" t="n">
-        <v>77999</v>
+        <v>325504</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" s="4" t="n">
@@ -1119,18 +1120,18 @@
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>75637</v>
+        <v>96727</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" s="4" t="n">
@@ -1138,37 +1139,37 @@
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>34244</v>
+        <v>122671</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>1543020</v>
+        <v>65425</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" s="4" t="n">
@@ -1176,37 +1177,37 @@
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B46" s="6" t="n">
-        <v>175767</v>
+        <v>36791</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B47" s="6" t="n">
-        <v>240182</v>
+        <v>689912</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" s="4" t="n">
@@ -1214,18 +1215,18 @@
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B48" s="6" t="n">
-        <v>67111</v>
+        <v>262523</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" s="4" t="n">
@@ -1233,18 +1234,18 @@
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B49" s="6" t="n">
-        <v>321983</v>
+        <v>211798</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" s="4" t="n">
@@ -1252,18 +1253,18 @@
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B50" s="6" t="n">
-        <v>66577</v>
+        <v>69430</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" s="4" t="n">
@@ -1271,37 +1272,37 @@
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B51" s="6" t="n">
-        <v>15734</v>
+        <v>117653</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
         </is>
       </c>
       <c r="B52" s="6" t="n">
-        <v>95547</v>
+        <v>56018</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" s="4" t="n">
@@ -1309,37 +1310,37 @@
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2019-12-14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B53" s="6" t="n">
-        <v>121232</v>
+        <v>310711</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>59673</v>
+        <v>196098</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" s="4" t="n">
@@ -1347,56 +1348,56 @@
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B55" s="6" t="n">
-        <v>36791</v>
+        <v>140512</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B56" s="6" t="n">
-        <v>684728</v>
+        <v>34718</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2019-08-14</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B57" s="6" t="n">
-        <v>262523</v>
+        <v>546751</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" s="4" t="n">
@@ -1404,37 +1405,37 @@
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B58" s="6" t="n">
-        <v>210188</v>
+        <v>451638</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" s="4" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B59" s="6" t="n">
-        <v>67365</v>
+        <v>116738</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" s="4" t="n">
@@ -1442,18 +1443,18 @@
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B60" s="6" t="n">
-        <v>113652</v>
+        <v>191877</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" s="4" t="n">
@@ -1461,37 +1462,37 @@
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B61" s="6" t="n">
-        <v>56018</v>
+        <v>73817</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" s="4" t="n">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.60.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B62" s="6" t="n">
-        <v>26241</v>
+        <v>108823</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" s="4" t="n">
@@ -1499,262 +1500,15 @@
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>2019-12-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
-        </is>
-      </c>
-      <c r="B63" s="6" t="n">
-        <v>308481</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t>2019-10-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B64" s="6" t="n">
-        <v>88435</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B65" s="6" t="n">
-        <v>139827</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E65" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
-        </is>
-      </c>
-      <c r="B66" s="6" t="n">
-        <v>194659</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E66" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="n">
-        <v>34718</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E67" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B68" s="6" t="n">
-        <v>546751</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E68" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.30.4.1</t>
-        </is>
-      </c>
-      <c r="B69" s="6" t="n">
-        <v>13016</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E69" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
-        </is>
-      </c>
-      <c r="B70" s="6" t="n">
-        <v>443223</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E70" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Intel(R) Wi-Fi 6 AX200 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B71" s="6" t="n">
-        <v>46270</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E71" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-23</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
-        </is>
-      </c>
-      <c r="B72" s="6" t="n">
-        <v>109665</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E72" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
-        </is>
-      </c>
-      <c r="B73" s="6" t="n">
-        <v>191877</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E73" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
-        </is>
-      </c>
-      <c r="B74" s="6" t="n">
-        <v>62515</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E74" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
-        </is>
-      </c>
-      <c r="B75" s="6" t="n">
-        <v>108823</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E75" s="4" t="inlineStr">
-        <is>
           <t>2018-10-31</t>
         </is>
       </c>
     </row>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
@@ -52,7 +52,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -63,9 +63,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,15 +437,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="48" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="18" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
-    <col width="2" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="2" customWidth="1" min="8" max="8"/>
-    <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="2" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
+    <col width="16" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -490,10 +487,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>95.2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +503,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>95.8</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6"/>
@@ -538,456 +535,974 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>Adapter-Driver</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Total Samples</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr"/>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Good Roaming Calculation (%)</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>Driver Vintage</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>adapter-driver</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>good sum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>critical sum</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>warning sum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>client count</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>total sum</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>adapter</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>driver</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>good roaming calculation (%)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>driver vintage</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>10451</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>376240</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1104</v>
+      </c>
+      <c r="D13" t="n">
+        <v>582</v>
+      </c>
+      <c r="E13" t="n">
+        <v>594</v>
+      </c>
+      <c r="F13" t="n">
+        <v>377926</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>63373</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1786148</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3309</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4386</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2366</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1793843</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>22.250.0.4</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2023-07-25</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="n">
-        <v>11128</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="4" t="n">
-        <v/>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7568454</v>
+      </c>
+      <c r="C15" t="n">
+        <v>14989</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13188</v>
+      </c>
+      <c r="E15" t="n">
+        <v>16900</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7596631</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2021-09-18</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>69345</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>290468</v>
+      </c>
+      <c r="C16" t="n">
+        <v>898</v>
+      </c>
+      <c r="D16" t="n">
+        <v>303</v>
+      </c>
+      <c r="E16" t="n">
+        <v>412</v>
+      </c>
+      <c r="F16" t="n">
+        <v>291669</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>486214</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>2024-11-10</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>51569</v>
+      </c>
+      <c r="C17" t="n">
+        <v>205</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" t="n">
+        <v>51774</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>23.120.0.3</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="n">
-        <v>4931894</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>2024-09-25</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>733616</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1647</v>
+      </c>
+      <c r="D18" t="n">
+        <v>507</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1266</v>
+      </c>
+      <c r="F18" t="n">
+        <v>735770</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>52237</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>2024-08-13</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1159949</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2346</v>
+      </c>
+      <c r="D19" t="n">
+        <v>583</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1850</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1162878</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>22.170.0.3</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>27295</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>2024-04-13</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>192287</v>
+      </c>
+      <c r="C20" t="n">
+        <v>421</v>
+      </c>
+      <c r="D20" t="n">
+        <v>70</v>
+      </c>
+      <c r="E20" t="n">
+        <v>390</v>
+      </c>
+      <c r="F20" t="n">
+        <v>192778</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>23.80.1.3</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>276524</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>2024-03-19</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>79802</v>
+      </c>
+      <c r="C21" t="n">
+        <v>35</v>
+      </c>
+      <c r="D21" t="n">
+        <v>190</v>
+      </c>
+      <c r="E21" t="n">
+        <v>126</v>
+      </c>
+      <c r="F21" t="n">
+        <v>80027</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>21.90.3.2</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="n">
-        <v>637128</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>2024-01-20</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1499724</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4069</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1136</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2789</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1504929</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="n">
-        <v>44160</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E23" s="4" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>330685</v>
+      </c>
+      <c r="C23" t="n">
+        <v>445</v>
+      </c>
+      <c r="D23" t="n">
+        <v>530</v>
+      </c>
+      <c r="E23" t="n">
+        <v>410</v>
+      </c>
+      <c r="F23" t="n">
+        <v>331660</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>22.90.0.5</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>97122</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="4" t="inlineStr">
-        <is>
-          <t>2023-10-30</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>938125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2222</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1006</v>
+      </c>
+      <c r="E24" t="n">
+        <v>959</v>
+      </c>
+      <c r="F24" t="n">
+        <v>941353</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>22.20.0.6</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="n">
-        <v>78477</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.240.0.6</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>475627</v>
+      </c>
+      <c r="C25" t="n">
+        <v>594</v>
+      </c>
+      <c r="D25" t="n">
+        <v>974</v>
+      </c>
+      <c r="E25" t="n">
+        <v>627</v>
+      </c>
+      <c r="F25" t="n">
+        <v>477195</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>22.240.0.6</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2023-06-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="n">
-        <v>226852</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E26" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-28</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>95095</v>
+      </c>
+      <c r="C26" t="n">
+        <v>191</v>
+      </c>
+      <c r="D26" t="n">
+        <v>30</v>
+      </c>
+      <c r="E26" t="n">
+        <v>247</v>
+      </c>
+      <c r="F26" t="n">
+        <v>95316</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>22.60.0.6</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="n">
-        <v>459268</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1731609</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2149</v>
+      </c>
+      <c r="D27" t="n">
+        <v>656</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1812</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1734414</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>22.0.0.6</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
-        </is>
-      </c>
-      <c r="B28" s="6" t="n">
-        <v>31330</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="4" t="inlineStr">
-        <is>
-          <t>2022-11-22</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>2595641</v>
+      </c>
+      <c r="C28" t="n">
+        <v>4209</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1357</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2665</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2601207</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>23.40.0.4</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-03-09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
-        </is>
-      </c>
-      <c r="B29" s="6" t="n">
-        <v>3654692</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E29" s="4" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>10141912</v>
+      </c>
+      <c r="C29" t="n">
+        <v>11110</v>
+      </c>
+      <c r="D29" t="n">
+        <v>10343</v>
+      </c>
+      <c r="E29" t="n">
+        <v>13595</v>
+      </c>
+      <c r="F29" t="n">
+        <v>10163365</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>21.20.1.1</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
-        </is>
-      </c>
-      <c r="B30" s="6" t="n">
-        <v>158283</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4" t="inlineStr">
-        <is>
-          <t>2022-06-20</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>12334650</v>
+      </c>
+      <c r="C30" t="n">
+        <v>18519</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6330</v>
+      </c>
+      <c r="E30" t="n">
+        <v>15232</v>
+      </c>
+      <c r="F30" t="n">
+        <v>12359499</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>23.60.1.2</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
-        </is>
-      </c>
-      <c r="B31" s="6" t="n">
-        <v>25808</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.80.0.7</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2610107</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3372</v>
+      </c>
+      <c r="D31" t="n">
+        <v>914</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4965</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2614393</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>23.80.0.7</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2024-09-01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
-        </is>
-      </c>
-      <c r="B32" s="6" t="n">
-        <v>106139</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4" t="inlineStr">
-        <is>
-          <t>2022-05-01</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>28258</v>
+      </c>
+      <c r="C32" t="n">
+        <v>45</v>
+      </c>
+      <c r="D32" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" t="n">
+        <v>61</v>
+      </c>
+      <c r="F32" t="n">
+        <v>28323</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>23.90.1.3</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
-        </is>
-      </c>
-      <c r="B33" s="6" t="n">
-        <v>178916</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E33" s="4" t="inlineStr">
-        <is>
-          <t>2022-04-25</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1296766</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1864</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1075</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2887</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1299705</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>22.0.1.1</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>109293</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E34" s="4" t="inlineStr">
-        <is>
-          <t>2022-03-14</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>389283</v>
+      </c>
+      <c r="C34" t="n">
+        <v>428</v>
+      </c>
+      <c r="D34" t="n">
+        <v>216</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1233</v>
+      </c>
+      <c r="F34" t="n">
+        <v>389927</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
-        </is>
-      </c>
-      <c r="B35" s="6" t="n">
-        <v>101951</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E35" s="4" t="inlineStr">
-        <is>
-          <t>2022-01-30</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>63994</v>
+      </c>
+      <c r="C35" t="n">
+        <v>66</v>
+      </c>
+      <c r="D35" t="n">
+        <v>41</v>
+      </c>
+      <c r="E35" t="n">
+        <v>68</v>
+      </c>
+      <c r="F35" t="n">
+        <v>64101</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>21.80.0.4</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
@@ -997,14 +1512,35 @@
           <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
-      <c r="B36" s="6" t="n">
+      <c r="B36" t="n">
+        <v>79835</v>
+      </c>
+      <c r="C36" t="n">
+        <v>93</v>
+      </c>
+      <c r="D36" t="n">
+        <v>25</v>
+      </c>
+      <c r="E36" t="n">
+        <v>153</v>
+      </c>
+      <c r="F36" t="n">
         <v>79953</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" s="4" t="n">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>22.80.0.9</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E36" s="4" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>2021-08-18</t>
         </is>
@@ -1013,502 +1549,1957 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
-        </is>
-      </c>
-      <c r="B37" s="6" t="n">
-        <v>75637</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E37" s="4" t="inlineStr">
-        <is>
-          <t>2021-06-28</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.100.0.4</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>485568</v>
+      </c>
+      <c r="C37" t="n">
+        <v>468</v>
+      </c>
+      <c r="D37" t="n">
+        <v>178</v>
+      </c>
+      <c r="E37" t="n">
+        <v>568</v>
+      </c>
+      <c r="F37" t="n">
+        <v>486214</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>23.100.0.4</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
-        </is>
-      </c>
-      <c r="B38" s="6" t="n">
-        <v>35355</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E38" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-27</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>44133</v>
+      </c>
+      <c r="C38" t="n">
+        <v>17</v>
+      </c>
+      <c r="D38" t="n">
+        <v>10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>89</v>
+      </c>
+      <c r="F38" t="n">
+        <v>44160</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>23.20.0.4</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
-        </is>
-      </c>
-      <c r="B39" s="6" t="n">
-        <v>1543020</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E39" s="4" t="inlineStr">
-        <is>
-          <t>2021-04-18</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4925727</v>
+      </c>
+      <c r="C39" t="n">
+        <v>4589</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1578</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5803</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4931894</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>23.90.0.2</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
-        </is>
-      </c>
-      <c r="B40" s="6" t="n">
-        <v>191994</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>689001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>181</v>
+      </c>
+      <c r="D40" t="n">
+        <v>730</v>
+      </c>
+      <c r="E40" t="n">
+        <v>955</v>
+      </c>
+      <c r="F40" t="n">
+        <v>689912</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>21.110.1.1</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E40" s="4" t="inlineStr">
-        <is>
-          <t>2021-03-02</t>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
-        </is>
-      </c>
-      <c r="B41" s="6" t="n">
-        <v>244856</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>122523</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>147</v>
+      </c>
+      <c r="E41" t="n">
+        <v>116</v>
+      </c>
+      <c r="F41" t="n">
+        <v>122671</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E41" s="4" t="inlineStr">
-        <is>
-          <t>2021-01-19</t>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
-        </is>
-      </c>
-      <c r="B42" s="6" t="n">
-        <v>325504</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>36772</v>
+      </c>
+      <c r="C42" t="n">
+        <v>17</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="n">
+        <v>81</v>
+      </c>
+      <c r="F42" t="n">
+        <v>36791</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>21.110.2.1</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E42" s="4" t="inlineStr">
-        <is>
-          <t>2020-10-19</t>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
-        </is>
-      </c>
-      <c r="B43" s="6" t="n">
-        <v>96727</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-15</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>226727</v>
+      </c>
+      <c r="C43" t="n">
+        <v>14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>111</v>
+      </c>
+      <c r="E43" t="n">
+        <v>382</v>
+      </c>
+      <c r="F43" t="n">
+        <v>226852</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>22.220.0.4</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B44" s="6" t="n">
-        <v>122671</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>276302</v>
+      </c>
+      <c r="C44" t="n">
+        <v>202</v>
+      </c>
+      <c r="D44" t="n">
+        <v>20</v>
+      </c>
+      <c r="E44" t="n">
+        <v>516</v>
+      </c>
+      <c r="F44" t="n">
+        <v>276524</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>23.40.1.1</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E44" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
-        </is>
-      </c>
-      <c r="B45" s="6" t="n">
-        <v>65425</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E45" s="4" t="inlineStr">
-        <is>
-          <t>2020-08-05</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>636247</v>
+      </c>
+      <c r="C45" t="n">
+        <v>708</v>
+      </c>
+      <c r="D45" t="n">
+        <v>173</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1160</v>
+      </c>
+      <c r="F45" t="n">
+        <v>637128</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>23.30.0.6</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
-        </is>
-      </c>
-      <c r="B46" s="6" t="n">
-        <v>36791</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3651434</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3023</v>
+      </c>
+      <c r="D46" t="n">
+        <v>235</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4776</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3654692</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>22.160.0.4</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E46" s="4" t="inlineStr">
-        <is>
-          <t>2020-07-20</t>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
-        </is>
-      </c>
-      <c r="B47" s="6" t="n">
-        <v>689912</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>191891</v>
+      </c>
+      <c r="C47" t="n">
+        <v>86</v>
+      </c>
+      <c r="D47" t="n">
+        <v>17</v>
+      </c>
+      <c r="E47" t="n">
+        <v>374</v>
+      </c>
+      <c r="F47" t="n">
+        <v>191994</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>22.40.0.7</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E47" s="4" t="inlineStr">
-        <is>
-          <t>2020-06-30</t>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
-        </is>
-      </c>
-      <c r="B48" s="6" t="n">
-        <v>262523</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E48" s="4" t="inlineStr">
-        <is>
-          <t>2020-04-05</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>244540</v>
+      </c>
+      <c r="C48" t="n">
+        <v>271</v>
+      </c>
+      <c r="D48" t="n">
+        <v>45</v>
+      </c>
+      <c r="E48" t="n">
+        <v>367</v>
+      </c>
+      <c r="F48" t="n">
+        <v>244856</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>22.30.0.11</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
-        </is>
-      </c>
-      <c r="B49" s="6" t="n">
-        <v>211798</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>78395</v>
+      </c>
+      <c r="C49" t="n">
+        <v>26</v>
+      </c>
+      <c r="D49" t="n">
+        <v>56</v>
+      </c>
+      <c r="E49" t="n">
+        <v>145</v>
+      </c>
+      <c r="F49" t="n">
+        <v>78477</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>22.250.10.1</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="E49" s="4" t="inlineStr">
-        <is>
-          <t>2020-02-24</t>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B50" s="6" t="n">
-        <v>69430</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E50" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>211485</v>
+      </c>
+      <c r="C50" t="n">
+        <v>246</v>
+      </c>
+      <c r="D50" t="n">
+        <v>67</v>
+      </c>
+      <c r="E50" t="n">
+        <v>414</v>
+      </c>
+      <c r="F50" t="n">
+        <v>211798</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>21.80.2.1</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
-        </is>
-      </c>
-      <c r="B51" s="6" t="n">
-        <v>117653</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E51" s="4" t="inlineStr">
-        <is>
-          <t>2020-01-06</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>101893</v>
+      </c>
+      <c r="C51" t="n">
+        <v>43</v>
+      </c>
+      <c r="D51" t="n">
+        <v>15</v>
+      </c>
+      <c r="E51" t="n">
+        <v>157</v>
+      </c>
+      <c r="F51" t="n">
+        <v>101951</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>22.120.0.3</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
-        </is>
-      </c>
-      <c r="B52" s="6" t="n">
-        <v>56018</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E52" s="4" t="inlineStr">
-        <is>
-          <t>2019-12-14</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>325299</v>
+      </c>
+      <c r="C52" t="n">
+        <v>88</v>
+      </c>
+      <c r="D52" t="n">
+        <v>117</v>
+      </c>
+      <c r="E52" t="n">
+        <v>426</v>
+      </c>
+      <c r="F52" t="n">
+        <v>325504</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>22.10.0.7</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
-        </is>
-      </c>
-      <c r="B53" s="6" t="n">
-        <v>310711</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E53" s="4" t="inlineStr">
-        <is>
-          <t>2019-10-05</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>178769</v>
+      </c>
+      <c r="C53" t="n">
+        <v>130</v>
+      </c>
+      <c r="D53" t="n">
+        <v>17</v>
+      </c>
+      <c r="E53" t="n">
+        <v>250</v>
+      </c>
+      <c r="F53" t="n">
+        <v>178916</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>22.140.0.3</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
-        </is>
-      </c>
-      <c r="B54" s="6" t="n">
-        <v>196098</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>73778</v>
+      </c>
+      <c r="C54" t="n">
+        <v>34</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="n">
+        <v>98</v>
+      </c>
+      <c r="F54" t="n">
+        <v>73817</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>20.110.0.3</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
-        </is>
-      </c>
-      <c r="B55" s="6" t="n">
-        <v>140512</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E55" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>109196</v>
+      </c>
+      <c r="C55" t="n">
+        <v>93</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>170</v>
+      </c>
+      <c r="F55" t="n">
+        <v>109293</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>22.130.0.5</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
-        </is>
-      </c>
-      <c r="B56" s="6" t="n">
-        <v>34718</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>69421</v>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>110</v>
+      </c>
+      <c r="F56" t="n">
+        <v>69430</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>100</v>
       </c>
-      <c r="E56" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-14</t>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
-        </is>
-      </c>
-      <c r="B57" s="6" t="n">
-        <v>546751</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>10450</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>29</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10451</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>21.80.2.3</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>100</v>
       </c>
-      <c r="E57" s="4" t="inlineStr">
-        <is>
-          <t>2019-08-10</t>
-        </is>
+      <c r="J57" t="n">
+        <v/>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
-        </is>
-      </c>
-      <c r="B58" s="6" t="n">
-        <v>451638</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>262466</v>
+      </c>
+      <c r="C58" t="n">
+        <v>48</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>198</v>
+      </c>
+      <c r="F58" t="n">
+        <v>262523</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>21.90.1.2</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>100</v>
       </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t>2019-07-06</t>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
-        </is>
-      </c>
-      <c r="B59" s="6" t="n">
-        <v>116738</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>25800</v>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="n">
+        <v>28</v>
+      </c>
+      <c r="F59" t="n">
+        <v>25808</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>22.100.0.3</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>100</v>
       </c>
-      <c r="E59" s="4" t="inlineStr">
-        <is>
-          <t>2019-04-06</t>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
-        </is>
-      </c>
-      <c r="B60" s="6" t="n">
-        <v>191877</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" s="4" t="n">
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>158235</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>44</v>
+      </c>
+      <c r="E60" t="n">
+        <v>213</v>
+      </c>
+      <c r="F60" t="n">
+        <v>158283</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>22.150.1.1</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>100</v>
       </c>
-      <c r="E60" s="4" t="inlineStr">
-        <is>
-          <t>2019-03-24</t>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="n">
-        <v>73817</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" s="4" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t>2018-11-27</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>196029</v>
+      </c>
+      <c r="C61" t="n">
+        <v>38</v>
+      </c>
+      <c r="D61" t="n">
+        <v>31</v>
+      </c>
+      <c r="E61" t="n">
+        <v>220</v>
+      </c>
+      <c r="F61" t="n">
+        <v>196098</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>21.0.0.5</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>100</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1542699</v>
+      </c>
+      <c r="C62" t="n">
+        <v>280</v>
+      </c>
+      <c r="D62" t="n">
+        <v>41</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1933</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1543020</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>22.50.0.7</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>100</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2021-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>75627</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>80</v>
+      </c>
+      <c r="F63" t="n">
+        <v>75637</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>22.70.0.6</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>100</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>2021-06-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>191867</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>161</v>
+      </c>
+      <c r="F64" t="n">
+        <v>191877</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>21.0.1.1</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>100</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>2019-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>116698</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25</v>
+      </c>
+      <c r="D65" t="n">
+        <v>15</v>
+      </c>
+      <c r="E65" t="n">
+        <v>305</v>
+      </c>
+      <c r="F65" t="n">
+        <v>116738</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>21.10.0.5</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>100</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2019-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>546747</v>
+      </c>
+      <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>428</v>
+      </c>
+      <c r="F66" t="n">
+        <v>546751</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>21.10.1.2</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>100</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>2019-08-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>63355</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>114</v>
+      </c>
+      <c r="F67" t="n">
+        <v>63373</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>21.10.2.2</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>100</v>
+      </c>
+      <c r="J67" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>96706</v>
+      </c>
+      <c r="C68" t="n">
+        <v>12</v>
+      </c>
+      <c r="D68" t="n">
+        <v>9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>195</v>
+      </c>
+      <c r="F68" t="n">
+        <v>96727</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>21.120.0.9</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>100</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2020-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>451424</v>
+      </c>
+      <c r="C69" t="n">
+        <v>204</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>433</v>
+      </c>
+      <c r="F69" t="n">
+        <v>451638</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>21.30.3.2</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>100</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>2019-07-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>34702</v>
+      </c>
+      <c r="C70" t="n">
+        <v>14</v>
+      </c>
+      <c r="D70" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" t="n">
+        <v>44</v>
+      </c>
+      <c r="F70" t="n">
+        <v>34718</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>21.40.1.4</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>100</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>140487</v>
+      </c>
+      <c r="C71" t="n">
+        <v>18</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7</v>
+      </c>
+      <c r="E71" t="n">
+        <v>409</v>
+      </c>
+      <c r="F71" t="n">
+        <v>140512</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>21.40.2.2</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2019-08-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>310612</v>
+      </c>
+      <c r="C72" t="n">
+        <v>52</v>
+      </c>
+      <c r="D72" t="n">
+        <v>47</v>
+      </c>
+      <c r="E72" t="n">
+        <v>420</v>
+      </c>
+      <c r="F72" t="n">
+        <v>310711</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>21.50.1.1</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>100</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>2019-10-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>27283</v>
+      </c>
+      <c r="C73" t="n">
+        <v>9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+      <c r="E73" t="n">
+        <v>34</v>
+      </c>
+      <c r="F73" t="n">
+        <v>27295</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>23.50.0.6</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>100</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>52231</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>66</v>
+      </c>
+      <c r="F74" t="n">
+        <v>52237</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>23.70.4.1</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>100</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>31330</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>66</v>
+      </c>
+      <c r="F75" t="n">
+        <v>31330</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>22.190.0.4</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>100</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>2022-11-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>459127</v>
+      </c>
+      <c r="C76" t="n">
+        <v>104</v>
+      </c>
+      <c r="D76" t="n">
+        <v>37</v>
+      </c>
+      <c r="E76" t="n">
+        <v>645</v>
+      </c>
+      <c r="F76" t="n">
+        <v>459268</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>22.200.2.1</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>100</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
-      <c r="B62" s="6" t="n">
+      <c r="B77" t="n">
         <v>108823</v>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" s="4" t="n">
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>125</v>
+      </c>
+      <c r="F77" t="n">
+        <v>108823</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>20.100.0.4</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
         <v>100</v>
       </c>
-      <c r="E62" s="4" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>2018-10-31</t>
         </is>
       </c>
     </row>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>106139</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>92</v>
+      </c>
+      <c r="F78" t="n">
+        <v>106139</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>22.80.1.1</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>100</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2022-05-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>97109</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>116</v>
+      </c>
+      <c r="F79" t="n">
+        <v>97122</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>23.10.0.8</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>100</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>69333</v>
+      </c>
+      <c r="C80" t="n">
+        <v>8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>114</v>
+      </c>
+      <c r="F80" t="n">
+        <v>69345</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>23.110.0.5</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>100</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>65422</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>72</v>
+      </c>
+      <c r="F81" t="n">
+        <v>65425</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>21.110.3.2</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>100</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>11124</v>
+      </c>
+      <c r="C82" t="n">
+        <v>4</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>28</v>
+      </c>
+      <c r="F82" t="n">
+        <v>11128</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>21.40.1.3</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>100</v>
+      </c>
+      <c r="J82" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.60.2.1</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>56003</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>15</v>
+      </c>
+      <c r="E83" t="n">
+        <v>62</v>
+      </c>
+      <c r="F83" t="n">
+        <v>56018</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>21.60.2.1</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>100</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2019-12-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.70.0.6</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>117615</v>
+      </c>
+      <c r="C84" t="n">
+        <v>24</v>
+      </c>
+      <c r="D84" t="n">
+        <v>14</v>
+      </c>
+      <c r="E84" t="n">
+        <v>151</v>
+      </c>
+      <c r="F84" t="n">
+        <v>117653</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>21.70.0.6</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>100</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>2020-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.50.1.1</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>35341</v>
+      </c>
+      <c r="C85" t="n">
+        <v>11</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>80</v>
+      </c>
+      <c r="F85" t="n">
+        <v>35355</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>22.50.1.1</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>100</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>2021-04-27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
+++ b/Output/roaming_impact_reports_per_acct/PernodRicard_driver_summary.xlsx
@@ -480,33 +480,33 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>95</v>
+        <v>95.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>518</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>95.3</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>638</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6"/>
@@ -589,23 +589,23 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>376240</v>
+        <v>1869842</v>
       </c>
       <c r="C13" t="n">
-        <v>1104</v>
+        <v>3420</v>
       </c>
       <c r="D13" t="n">
-        <v>582</v>
+        <v>4386</v>
       </c>
       <c r="E13" t="n">
-        <v>594</v>
+        <v>2436</v>
       </c>
       <c r="F13" t="n">
-        <v>377926</v>
+        <v>1877648</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>22.250.0.4</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -622,30 +622,30 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2023-10-30</t>
+          <t>2023-07-25</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.250.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1786148</v>
+        <v>8170878</v>
       </c>
       <c r="C14" t="n">
-        <v>3309</v>
+        <v>15867</v>
       </c>
       <c r="D14" t="n">
-        <v>4386</v>
+        <v>13188</v>
       </c>
       <c r="E14" t="n">
-        <v>2366</v>
+        <v>18436</v>
       </c>
       <c r="F14" t="n">
-        <v>1793843</v>
+        <v>8199933</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>22.250.0.4</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -662,30 +662,30 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2023-07-25</t>
+          <t>2021-09-18</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7568454</v>
+        <v>1611822</v>
       </c>
       <c r="C15" t="n">
-        <v>14989</v>
+        <v>4793</v>
       </c>
       <c r="D15" t="n">
-        <v>13188</v>
+        <v>1136</v>
       </c>
       <c r="E15" t="n">
-        <v>16900</v>
+        <v>2996</v>
       </c>
       <c r="F15" t="n">
-        <v>7596631</v>
+        <v>1617751</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
@@ -713,19 +713,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>290468</v>
+        <v>298304</v>
       </c>
       <c r="C16" t="n">
-        <v>898</v>
+        <v>925</v>
       </c>
       <c r="D16" t="n">
         <v>303</v>
       </c>
       <c r="E16" t="n">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F16" t="n">
-        <v>291669</v>
+        <v>299532</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -749,32 +749,32 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51569</v>
+        <v>381616</v>
       </c>
       <c r="C17" t="n">
-        <v>205</v>
+        <v>1106</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="E17" t="n">
-        <v>50</v>
+        <v>601</v>
       </c>
       <c r="F17" t="n">
-        <v>51774</v>
+        <v>383304</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>23.120.0.3</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -782,30 +782,30 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2025-02-05</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>733616</v>
+        <v>335610</v>
       </c>
       <c r="C18" t="n">
-        <v>1647</v>
+        <v>495</v>
       </c>
       <c r="D18" t="n">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="E18" t="n">
-        <v>1266</v>
+        <v>414</v>
       </c>
       <c r="F18" t="n">
-        <v>735770</v>
+        <v>336635</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>22.90.0.5</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -822,30 +822,30 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2021-09-26</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1159949</v>
+        <v>750778</v>
       </c>
       <c r="C19" t="n">
-        <v>2346</v>
+        <v>1655</v>
       </c>
       <c r="D19" t="n">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="E19" t="n">
-        <v>1850</v>
+        <v>1290</v>
       </c>
       <c r="F19" t="n">
-        <v>1162878</v>
+        <v>752940</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>22.170.0.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -862,30 +862,30 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2022-08-28</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>192287</v>
+        <v>1021828</v>
       </c>
       <c r="C20" t="n">
-        <v>421</v>
+        <v>2379</v>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>1006</v>
       </c>
       <c r="E20" t="n">
-        <v>390</v>
+        <v>1021</v>
       </c>
       <c r="F20" t="n">
-        <v>192778</v>
+        <v>1025213</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>23.80.1.3</t>
+          <t>22.20.0.6</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -902,39 +902,39 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2020-11-29</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79802</v>
+        <v>100380</v>
       </c>
       <c r="C21" t="n">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="D21" t="n">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="E21" t="n">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="F21" t="n">
-        <v>80027</v>
+        <v>100674</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>21.90.3.2</t>
+          <t>22.60.0.6</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -942,39 +942,39 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2020-05-03</t>
+          <t>2021-05-26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.120.0.3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1499724</v>
+        <v>65993</v>
       </c>
       <c r="C22" t="n">
-        <v>4069</v>
+        <v>210</v>
       </c>
       <c r="D22" t="n">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2789</v>
+        <v>67</v>
       </c>
       <c r="F22" t="n">
-        <v>1504929</v>
+        <v>66203</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>23.120.0.3</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -982,39 +982,39 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2025-02-05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.90.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.3.2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>330685</v>
+        <v>80246</v>
       </c>
       <c r="C23" t="n">
-        <v>445</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>530</v>
+        <v>190</v>
       </c>
       <c r="E23" t="n">
-        <v>410</v>
+        <v>128</v>
       </c>
       <c r="F23" t="n">
-        <v>331660</v>
+        <v>80471</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>22.90.0.5</t>
+          <t>21.90.3.2</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1022,30 +1022,30 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2021-09-26</t>
+          <t>2020-05-03</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.20.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 23.80.1.3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>938125</v>
+        <v>195464</v>
       </c>
       <c r="C24" t="n">
-        <v>2222</v>
+        <v>430</v>
       </c>
       <c r="D24" t="n">
-        <v>1006</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
-        <v>959</v>
+        <v>401</v>
       </c>
       <c r="F24" t="n">
-        <v>941353</v>
+        <v>195964</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22.20.0.6</t>
+          <t>23.80.1.3</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2020-11-29</t>
+          <t>2024-09-03</t>
         </is>
       </c>
     </row>
@@ -1073,19 +1073,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>475627</v>
+        <v>485726</v>
       </c>
       <c r="C25" t="n">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D25" t="n">
         <v>974</v>
       </c>
       <c r="E25" t="n">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="F25" t="n">
-        <v>477195</v>
+        <v>487300</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1109,23 +1109,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.60.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>95095</v>
+        <v>1833336</v>
       </c>
       <c r="C26" t="n">
-        <v>191</v>
+        <v>2376</v>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>656</v>
       </c>
       <c r="E26" t="n">
-        <v>247</v>
+        <v>1899</v>
       </c>
       <c r="F26" t="n">
-        <v>95316</v>
+        <v>1836368</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>22.60.0.6</t>
+          <t>22.0.0.6</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1142,30 +1142,30 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2020-09-16</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.0.6</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.170.0.3</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1731609</v>
+        <v>1237156</v>
       </c>
       <c r="C27" t="n">
-        <v>2149</v>
+        <v>2499</v>
       </c>
       <c r="D27" t="n">
-        <v>656</v>
+        <v>583</v>
       </c>
       <c r="E27" t="n">
-        <v>1812</v>
+        <v>1951</v>
       </c>
       <c r="F27" t="n">
-        <v>1734414</v>
+        <v>1240238</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>22.0.0.6</t>
+          <t>22.170.0.3</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -1182,39 +1182,39 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2022-08-28</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2595641</v>
+        <v>63994</v>
       </c>
       <c r="C28" t="n">
-        <v>4209</v>
+        <v>66</v>
       </c>
       <c r="D28" t="n">
-        <v>1357</v>
+        <v>41</v>
       </c>
       <c r="E28" t="n">
-        <v>2665</v>
+        <v>68</v>
       </c>
       <c r="F28" t="n">
-        <v>2601207</v>
+        <v>64101</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>23.40.0.4</t>
+          <t>21.80.0.4</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -1222,39 +1222,39 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2020-01-29</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>10141912</v>
+        <v>81417</v>
       </c>
       <c r="C29" t="n">
-        <v>11110</v>
+        <v>107</v>
       </c>
       <c r="D29" t="n">
-        <v>10343</v>
+        <v>25</v>
       </c>
       <c r="E29" t="n">
-        <v>13595</v>
+        <v>158</v>
       </c>
       <c r="F29" t="n">
-        <v>10163365</v>
+        <v>81549</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>21.20.1.1</t>
+          <t>22.80.0.9</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -1262,30 +1262,30 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2019-05-29</t>
+          <t>2021-08-18</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>12334650</v>
+        <v>28258</v>
       </c>
       <c r="C30" t="n">
-        <v>18519</v>
+        <v>45</v>
       </c>
       <c r="D30" t="n">
-        <v>6330</v>
+        <v>20</v>
       </c>
       <c r="E30" t="n">
-        <v>15232</v>
+        <v>61</v>
       </c>
       <c r="F30" t="n">
-        <v>12359499</v>
+        <v>28323</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>23.60.1.2</t>
+          <t>23.90.1.3</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-10-12</t>
         </is>
       </c>
     </row>
@@ -1313,19 +1313,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2610107</v>
+        <v>2685584</v>
       </c>
       <c r="C31" t="n">
-        <v>3372</v>
+        <v>3688</v>
       </c>
       <c r="D31" t="n">
         <v>914</v>
       </c>
       <c r="E31" t="n">
-        <v>4965</v>
+        <v>5134</v>
       </c>
       <c r="F31" t="n">
-        <v>2614393</v>
+        <v>2690186</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1349,23 +1349,23 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.1.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.0.4</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>28258</v>
+        <v>2891864</v>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>4678</v>
       </c>
       <c r="D32" t="n">
-        <v>20</v>
+        <v>1357</v>
       </c>
       <c r="E32" t="n">
-        <v>61</v>
+        <v>2882</v>
       </c>
       <c r="F32" t="n">
-        <v>28323</v>
+        <v>2897899</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>23.90.1.3</t>
+          <t>23.40.0.4</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -1382,39 +1382,39 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2024-10-12</t>
+          <t>2024-03-09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.60.1.2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1296766</v>
+        <v>12663105</v>
       </c>
       <c r="C33" t="n">
-        <v>1864</v>
+        <v>18946</v>
       </c>
       <c r="D33" t="n">
-        <v>1075</v>
+        <v>6330</v>
       </c>
       <c r="E33" t="n">
-        <v>2887</v>
+        <v>15512</v>
       </c>
       <c r="F33" t="n">
-        <v>1299705</v>
+        <v>12688381</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>22.0.1.1</t>
+          <t>23.60.1.2</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -1422,39 +1422,39 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2024-06-02</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.20.1.1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389283</v>
+        <v>10161220</v>
       </c>
       <c r="C34" t="n">
-        <v>428</v>
+        <v>11110</v>
       </c>
       <c r="D34" t="n">
-        <v>216</v>
+        <v>10343</v>
       </c>
       <c r="E34" t="n">
-        <v>1233</v>
+        <v>13613</v>
       </c>
       <c r="F34" t="n">
-        <v>389927</v>
+        <v>10182673</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>21.20.1.1</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -1462,30 +1462,30 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2019-05-29</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.0.1.1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>63994</v>
+        <v>1400496</v>
       </c>
       <c r="C35" t="n">
-        <v>66</v>
+        <v>2029</v>
       </c>
       <c r="D35" t="n">
-        <v>41</v>
+        <v>1075</v>
       </c>
       <c r="E35" t="n">
-        <v>68</v>
+        <v>3210</v>
       </c>
       <c r="F35" t="n">
-        <v>64101</v>
+        <v>1403600</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>21.80.0.4</t>
+          <t>22.0.1.1</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -1502,30 +1502,30 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-09-28</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 22.80.0.9</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79835</v>
+        <v>393045</v>
       </c>
       <c r="C36" t="n">
-        <v>93</v>
+        <v>453</v>
       </c>
       <c r="D36" t="n">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="E36" t="n">
-        <v>153</v>
+        <v>1251</v>
       </c>
       <c r="F36" t="n">
-        <v>79953</v>
+        <v>393714</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1534,15 +1534,15 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>22.80.0.9</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2021-08-18</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
@@ -1553,19 +1553,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>485568</v>
+        <v>509717</v>
       </c>
       <c r="C37" t="n">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="D37" t="n">
         <v>178</v>
       </c>
       <c r="E37" t="n">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="F37" t="n">
-        <v>486214</v>
+        <v>510417</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1589,63 +1589,61 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>44133</v>
+        <v>11362</v>
       </c>
       <c r="C38" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="F38" t="n">
-        <v>44160</v>
+        <v>11369</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>intel(r) wireless-ac 9560 160mhz</t>
+          <t>intel(r) wi-fi 6 ax201 160mhz</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>23.20.0.4</t>
+          <t>21.40.1.3</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2023-11-28</t>
-        </is>
+      <c r="J38" t="n">
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4925727</v>
+        <v>332850</v>
       </c>
       <c r="C39" t="n">
-        <v>4589</v>
+        <v>99</v>
       </c>
       <c r="D39" t="n">
-        <v>1578</v>
+        <v>117</v>
       </c>
       <c r="E39" t="n">
-        <v>5803</v>
+        <v>438</v>
       </c>
       <c r="F39" t="n">
-        <v>4931894</v>
+        <v>333066</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1654,7 +1652,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>23.90.0.2</t>
+          <t>22.10.0.7</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -1662,30 +1660,30 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2024-09-25</t>
+          <t>2020-10-19</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>689001</v>
+        <v>78620</v>
       </c>
       <c r="C40" t="n">
-        <v>181</v>
+        <v>26</v>
       </c>
       <c r="D40" t="n">
-        <v>730</v>
+        <v>56</v>
       </c>
       <c r="E40" t="n">
-        <v>955</v>
+        <v>148</v>
       </c>
       <c r="F40" t="n">
-        <v>689912</v>
+        <v>78702</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1694,7 +1692,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>21.110.1.1</t>
+          <t>22.250.10.1</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -1702,30 +1700,30 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>2023-08-14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>122523</v>
+        <v>258775</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>303</v>
       </c>
       <c r="D41" t="n">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="E41" t="n">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="F41" t="n">
-        <v>122671</v>
+        <v>259123</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1734,7 +1732,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>22.30.0.11</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -1742,30 +1740,30 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2021-01-19</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.20.0.4</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36772</v>
+        <v>44133</v>
       </c>
       <c r="C42" t="n">
         <v>17</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E42" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F42" t="n">
-        <v>36791</v>
+        <v>44160</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1774,7 +1772,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>21.110.2.1</t>
+          <t>23.20.0.4</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -1782,30 +1780,30 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2020-07-20</t>
+          <t>2023-11-28</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>226727</v>
+        <v>650628</v>
       </c>
       <c r="C43" t="n">
-        <v>14</v>
+        <v>762</v>
       </c>
       <c r="D43" t="n">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="E43" t="n">
-        <v>382</v>
+        <v>1192</v>
       </c>
       <c r="F43" t="n">
-        <v>226852</v>
+        <v>651563</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1814,7 +1812,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22.220.0.4</t>
+          <t>23.30.0.6</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -1822,30 +1820,30 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2024-01-20</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>276302</v>
+        <v>178769</v>
       </c>
       <c r="C44" t="n">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="D44" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>516</v>
+        <v>250</v>
       </c>
       <c r="F44" t="n">
-        <v>276524</v>
+        <v>178916</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1854,7 +1852,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>23.40.1.1</t>
+          <t>22.140.0.3</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -1862,30 +1860,30 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2022-04-25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.30.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>636247</v>
+        <v>110173</v>
       </c>
       <c r="C45" t="n">
-        <v>708</v>
+        <v>93</v>
       </c>
       <c r="D45" t="n">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>1160</v>
+        <v>174</v>
       </c>
       <c r="F45" t="n">
-        <v>637128</v>
+        <v>110270</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1894,7 +1892,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>23.30.0.6</t>
+          <t>22.130.0.5</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -1902,30 +1900,30 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2022-03-14</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3651434</v>
+        <v>101893</v>
       </c>
       <c r="C46" t="n">
-        <v>3023</v>
+        <v>43</v>
       </c>
       <c r="D46" t="n">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>4776</v>
+        <v>157</v>
       </c>
       <c r="F46" t="n">
-        <v>3654692</v>
+        <v>101951</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1934,7 +1932,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>22.160.0.4</t>
+          <t>22.120.0.3</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -1942,30 +1940,30 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2022-08-13</t>
+          <t>2022-01-30</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.2.1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>191891</v>
+        <v>36982</v>
       </c>
       <c r="C47" t="n">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="D47" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="F47" t="n">
-        <v>191994</v>
+        <v>37001</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1974,7 +1972,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22.40.0.7</t>
+          <t>21.110.2.1</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -1982,30 +1980,30 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2020-07-20</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.30.0.11</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>244540</v>
+        <v>125398</v>
       </c>
       <c r="C48" t="n">
-        <v>271</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="E48" t="n">
-        <v>367</v>
+        <v>118</v>
       </c>
       <c r="F48" t="n">
-        <v>244856</v>
+        <v>125546</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2014,7 +2012,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>22.30.0.11</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -2022,30 +2020,30 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.250.10.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.110.1.1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>78395</v>
+        <v>689001</v>
       </c>
       <c r="C49" t="n">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="D49" t="n">
-        <v>56</v>
+        <v>730</v>
       </c>
       <c r="E49" t="n">
-        <v>145</v>
+        <v>955</v>
       </c>
       <c r="F49" t="n">
-        <v>78477</v>
+        <v>689912</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2054,7 +2052,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>22.250.10.1</t>
+          <t>21.110.1.1</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -2062,30 +2060,30 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2020-06-30</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.90.0.2</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>211485</v>
+        <v>4933506</v>
       </c>
       <c r="C50" t="n">
-        <v>246</v>
+        <v>4594</v>
       </c>
       <c r="D50" t="n">
-        <v>67</v>
+        <v>1578</v>
       </c>
       <c r="E50" t="n">
-        <v>414</v>
+        <v>5811</v>
       </c>
       <c r="F50" t="n">
-        <v>211798</v>
+        <v>4939678</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2094,7 +2092,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>21.80.2.1</t>
+          <t>23.90.0.2</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -2102,30 +2100,30 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2024-09-25</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.120.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.40.1.1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>101893</v>
+        <v>276302</v>
       </c>
       <c r="C51" t="n">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E51" t="n">
-        <v>157</v>
+        <v>516</v>
       </c>
       <c r="F51" t="n">
-        <v>101951</v>
+        <v>276524</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2134,7 +2132,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>22.120.0.3</t>
+          <t>23.40.1.1</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -2142,30 +2140,30 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2024-03-19</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.10.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>325299</v>
+        <v>213149</v>
       </c>
       <c r="C52" t="n">
-        <v>88</v>
+        <v>249</v>
       </c>
       <c r="D52" t="n">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="E52" t="n">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F52" t="n">
-        <v>325504</v>
+        <v>213465</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2174,7 +2172,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>22.10.0.7</t>
+          <t>21.80.2.1</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -2182,30 +2180,30 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-02-24</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.140.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.220.0.4</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>178769</v>
+        <v>226727</v>
       </c>
       <c r="C53" t="n">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="E53" t="n">
-        <v>250</v>
+        <v>382</v>
       </c>
       <c r="F53" t="n">
-        <v>178916</v>
+        <v>226852</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2214,7 +2212,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>22.140.0.3</t>
+          <t>22.220.0.4</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -2222,30 +2220,30 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>2022-04-25</t>
+          <t>2023-03-28</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.160.0.4</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>73778</v>
+        <v>3651434</v>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>3023</v>
       </c>
       <c r="D54" t="n">
-        <v>5</v>
+        <v>235</v>
       </c>
       <c r="E54" t="n">
-        <v>98</v>
+        <v>4776</v>
       </c>
       <c r="F54" t="n">
-        <v>73817</v>
+        <v>3654692</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2254,7 +2252,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>20.110.0.3</t>
+          <t>22.160.0.4</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -2262,30 +2260,30 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2018-11-27</t>
+          <t>2022-08-13</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.130.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>109196</v>
+        <v>96719</v>
       </c>
       <c r="C55" t="n">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F55" t="n">
-        <v>109293</v>
+        <v>96740</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2294,38 +2292,38 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>22.130.0.5</t>
+          <t>21.120.0.9</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>2022-03-14</t>
+          <t>2020-08-15</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>69421</v>
+        <v>457565</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>207</v>
       </c>
       <c r="D56" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>110</v>
+        <v>444</v>
       </c>
       <c r="F56" t="n">
-        <v>69430</v>
+        <v>457782</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2334,7 +2332,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>21.70.0.6</t>
+          <t>21.30.3.2</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -2342,30 +2340,30 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-07-06</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10450</v>
+        <v>36134</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F57" t="n">
-        <v>10451</v>
+        <v>36150</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2374,36 +2372,38 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>21.80.2.3</t>
+          <t>21.40.1.4</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>100</v>
       </c>
-      <c r="J57" t="n">
-        <v/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2019-08-14</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>262466</v>
+        <v>140487</v>
       </c>
       <c r="C58" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E58" t="n">
-        <v>198</v>
+        <v>409</v>
       </c>
       <c r="F58" t="n">
-        <v>262523</v>
+        <v>140512</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>21.90.1.2</t>
+          <t>21.40.2.2</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2420,30 +2420,30 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>2020-04-05</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>25800</v>
+        <v>316372</v>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="E59" t="n">
-        <v>28</v>
+        <v>424</v>
       </c>
       <c r="F59" t="n">
-        <v>25808</v>
+        <v>316471</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>22.100.0.3</t>
+          <t>21.50.1.1</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -2460,30 +2460,30 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2019-10-05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.70.0.6</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>158235</v>
+        <v>72840</v>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D60" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="F60" t="n">
-        <v>158283</v>
+        <v>72854</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>22.150.1.1</t>
+          <t>21.70.0.6</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -2500,30 +2500,30 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>2020-01-06</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.80.2.3</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>196029</v>
+        <v>11202</v>
       </c>
       <c r="C61" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="F61" t="n">
-        <v>196098</v>
+        <v>11203</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2532,38 +2532,36 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>21.0.0.5</t>
+          <t>21.80.2.3</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>100</v>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>2019-08-31</t>
-        </is>
+      <c r="J61" t="n">
+        <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.90.1.2</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1542699</v>
+        <v>262466</v>
       </c>
       <c r="C62" t="n">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="D62" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
-        <v>1933</v>
+        <v>198</v>
       </c>
       <c r="F62" t="n">
-        <v>1543020</v>
+        <v>262523</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2572,7 +2570,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>22.50.0.7</t>
+          <t>21.90.1.2</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -2580,30 +2578,30 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2021-04-18</t>
+          <t>2020-04-05</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.150.1.1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>75627</v>
+        <v>159354</v>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E63" t="n">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="F63" t="n">
-        <v>75637</v>
+        <v>159402</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2612,7 +2610,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>22.70.0.6</t>
+          <t>22.150.1.1</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2620,30 +2618,30 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2022-06-20</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>191867</v>
+        <v>34683</v>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>161</v>
+        <v>72</v>
       </c>
       <c r="F64" t="n">
-        <v>191877</v>
+        <v>34683</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2652,7 +2650,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>21.0.1.1</t>
+          <t>22.190.0.4</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -2660,30 +2658,30 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2019-03-24</t>
+          <t>2022-11-22</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>116698</v>
+        <v>461035</v>
       </c>
       <c r="C65" t="n">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E65" t="n">
-        <v>305</v>
+        <v>652</v>
       </c>
       <c r="F65" t="n">
-        <v>116738</v>
+        <v>461179</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2692,7 +2690,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>21.10.0.5</t>
+          <t>22.200.2.1</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -2700,30 +2698,30 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2019-04-06</t>
+          <t>2023-03-08</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.100.0.3</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>546747</v>
+        <v>25800</v>
       </c>
       <c r="C66" t="n">
         <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>428</v>
+        <v>28</v>
       </c>
       <c r="F66" t="n">
-        <v>546751</v>
+        <v>25808</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2732,7 +2730,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>21.10.1.2</t>
+          <t>22.100.0.3</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -2740,30 +2738,30 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2019-08-10</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>63355</v>
+        <v>108902</v>
       </c>
       <c r="C67" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F67" t="n">
-        <v>63373</v>
+        <v>108902</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2772,36 +2770,38 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>21.10.2.2</t>
+          <t>20.100.0.4</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>100</v>
       </c>
-      <c r="J67" t="n">
-        <v/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>2018-10-31</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.120.0.9</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 20.110.0.3</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>96706</v>
+        <v>84618</v>
       </c>
       <c r="C68" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E68" t="n">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="F68" t="n">
-        <v>96727</v>
+        <v>84657</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>21.120.0.9</t>
+          <t>20.110.0.3</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -2818,30 +2818,30 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2020-08-15</t>
+          <t>2018-11-27</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.30.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.0.5</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>451424</v>
+        <v>200350</v>
       </c>
       <c r="C69" t="n">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="D69" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E69" t="n">
-        <v>433</v>
+        <v>223</v>
       </c>
       <c r="F69" t="n">
-        <v>451638</v>
+        <v>200419</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>21.30.3.2</t>
+          <t>21.0.0.5</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -2858,30 +2858,30 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2019-07-06</t>
+          <t>2019-08-31</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.1.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.0.1.1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>34702</v>
+        <v>192145</v>
       </c>
       <c r="C70" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="F70" t="n">
-        <v>34718</v>
+        <v>192155</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>21.40.1.4</t>
+          <t>21.0.1.1</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -2898,30 +2898,30 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2019-08-14</t>
+          <t>2019-03-24</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.40.2.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.0.5</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>140487</v>
+        <v>116698</v>
       </c>
       <c r="C71" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E71" t="n">
-        <v>409</v>
+        <v>305</v>
       </c>
       <c r="F71" t="n">
-        <v>140512</v>
+        <v>116738</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>21.40.2.2</t>
+          <t>21.10.0.5</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -2938,30 +2938,30 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2019-08-31</t>
+          <t>2019-04-06</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 21.50.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.1.2</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>310612</v>
+        <v>546747</v>
       </c>
       <c r="C72" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F72" t="n">
-        <v>310711</v>
+        <v>546751</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>21.50.1.1</t>
+          <t>21.10.1.2</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2019-10-05</t>
+          <t>2019-08-10</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.40.0.7</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>27283</v>
+        <v>212458</v>
       </c>
       <c r="C73" t="n">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E73" t="n">
-        <v>34</v>
+        <v>391</v>
       </c>
       <c r="F73" t="n">
-        <v>27295</v>
+        <v>212561</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -3010,7 +3010,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>23.50.0.6</t>
+          <t>22.40.0.7</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -3018,30 +3018,30 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2021-03-02</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.50.0.7</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>52231</v>
+        <v>1576605</v>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E74" t="n">
-        <v>66</v>
+        <v>1957</v>
       </c>
       <c r="F74" t="n">
-        <v>52237</v>
+        <v>1576933</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>23.70.4.1</t>
+          <t>22.50.0.7</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -3058,30 +3058,30 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2021-04-18</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.190.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.70.0.6</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>31330</v>
+        <v>75627</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F75" t="n">
-        <v>31330</v>
+        <v>75637</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>22.190.0.4</t>
+          <t>22.70.0.6</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -3098,30 +3098,30 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>2022-11-22</t>
+          <t>2021-06-28</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.200.2.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>459127</v>
+        <v>116173</v>
       </c>
       <c r="C76" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>645</v>
+        <v>99</v>
       </c>
       <c r="F76" t="n">
-        <v>459268</v>
+        <v>116173</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>22.200.2.1</t>
+          <t>22.80.1.1</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -3138,30 +3138,30 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>2023-03-08</t>
+          <t>2022-05-01</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 20.100.0.4</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>108823</v>
+        <v>97109</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E77" t="n">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F77" t="n">
-        <v>108823</v>
+        <v>97122</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>20.100.0.4</t>
+          <t>23.10.0.8</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -3178,30 +3178,30 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2018-10-31</t>
+          <t>2023-10-30</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 22.80.1.1</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>106139</v>
+        <v>79831</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="F78" t="n">
-        <v>106139</v>
+        <v>79843</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>22.80.1.1</t>
+          <t>23.110.0.5</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -3218,21 +3218,21 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2022-05-01</t>
+          <t>2025-01-01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.10.0.8</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 21.10.2.2</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>97109</v>
+        <v>66711</v>
       </c>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
@@ -3241,7 +3241,7 @@
         <v>116</v>
       </c>
       <c r="F79" t="n">
-        <v>97122</v>
+        <v>66730</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3250,38 +3250,36 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>23.10.0.8</t>
+          <t>21.10.2.2</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>100</v>
       </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>2023-10-30</t>
-        </is>
+      <c r="J79" t="n">
+        <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Intel(R) Wireless-AC 9560 160MHz - 23.110.0.5</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.50.0.6</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>69333</v>
+        <v>27993</v>
       </c>
       <c r="C80" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="F80" t="n">
-        <v>69345</v>
+        <v>28005</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -3290,7 +3288,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>23.110.0.5</t>
+          <t>23.50.0.6</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -3298,39 +3296,39 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2024-04-13</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
+          <t>Intel(R) Wireless-AC 9560 160MHz - 23.70.4.1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>65422</v>
+        <v>52231</v>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F81" t="n">
-        <v>65425</v>
+        <v>52237</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>intel(r) wi-fi 6 ax201 160mhz</t>
+          <t>intel(r) wireless-ac 9560 160mhz</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>21.110.3.2</t>
+          <t>23.70.4.1</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -3338,30 +3336,30 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2024-08-13</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.40.1.3</t>
+          <t>Intel(R) Wi-Fi 6 AX201 160MHz - 21.110.3.2</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11124</v>
+        <v>75454</v>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="F82" t="n">
-        <v>11128</v>
+        <v>75457</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -3370,14 +3368,16 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>21.40.1.3</t>
+          <t>21.110.3.2</t>
         </is>
       </c>
       <c r="I82" t="n">
         <v>100</v>
       </c>
-      <c r="J82" t="n">
-        <v/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2020-08-05</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3427,19 +3427,19 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>117615</v>
+        <v>121310</v>
       </c>
       <c r="C84" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D84" t="n">
         <v>14</v>
       </c>
       <c r="E84" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F84" t="n">
-        <v>117653</v>
+        <v>121350</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>35341</v>
+        <v>35363</v>
       </c>
       <c r="C85" t="n">
         <v>11</v>
@@ -3476,10 +3476,10 @@
         <v>3</v>
       </c>
       <c r="E85" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F85" t="n">
-        <v>35355</v>
+        <v>35377</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
